--- a/数据整理/stocks/A股/科创板/688268-华特气体.xlsx
+++ b/数据整理/stocks/A股/科创板/688268-华特气体.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>87.58</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.49</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -576,15 +606,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>82.71</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.26</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688268-华特气体.xlsx
+++ b/数据整理/stocks/A股/科创板/688268-华特气体.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -631,4 +632,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005668</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9563</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2870</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2475</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009835</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004044</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688268-华特气体.xlsx
+++ b/数据整理/stocks/A股/科创板/688268-华特气体.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -954,4 +955,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005668</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9145</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4241</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3364</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010237</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004044</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009835</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010238</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688268-华特气体.xlsx
+++ b/数据整理/stocks/A股/科创板/688268-华特气体.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1353,4 +1354,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688268-华特气体.xlsx
+++ b/数据整理/stocks/A股/科创板/688268-华特气体.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1362,7 +1363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1373,17 +1374,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1393,14 +1414,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.88</v>
+          <t>005668</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0109</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1409,14 +1452,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.65</v>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5439</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1425,14 +1490,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4904</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1441,13 +1528,303 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3886</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009835</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1472</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002378</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002281</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信裕利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
         <v>0</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688268-华特气体.xlsx
+++ b/数据整理/stocks/A股/科创板/688268-华特气体.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1723,7 +1724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1734,17 +1735,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1754,14 +1775,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.73</v>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4610</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1770,14 +1813,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.88</v>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2564</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1786,14 +1851,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.65</v>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2409</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1802,14 +1889,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1818,13 +1927,205 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>004917</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004918</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
         <v>0</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688268-华特气体.xlsx
+++ b/数据整理/stocks/A股/科创板/688268-华特气体.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2008,7 +2009,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2019,17 +2020,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2039,14 +2060,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1781</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2055,14 +2098,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.73</v>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1526</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2071,14 +2136,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.88</v>
+          <t>001731</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2087,14 +2174,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.65</v>
+          <t>001732</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -2103,14 +2212,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -2119,13 +2250,221 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>004918</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004917</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
         <v>0</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688268-华特气体.xlsx
+++ b/数据整理/stocks/A股/科创板/688268-华特气体.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="D2" t="n">
-        <v>0.35</v>
+        <v>9.279999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>2.73</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>1.88</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>1.65</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -600,6 +617,1732 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000404</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4001</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>166006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1616</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009872</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0660</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008375</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9647</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014420</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧成长领航一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7875</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3756</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010080</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧优势成长三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3408</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>360001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>光大保德信量化股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3147</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006049</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>恒越研究精选混合A/B</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2844</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010608</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>22.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2202</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2186</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007345</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2168</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>050018</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>69.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2026</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014421</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧成长领航一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1988</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007192</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>恒越研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1932</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.82</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1921</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004231</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1766</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>73.64</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1723</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009873</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1347</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1088</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>202019</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方策略优化混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007126</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博道远航混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007127</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博道远航混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005844</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010609</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008376</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006225</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001886</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合（LOF）E</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011500</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>九泰量化新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001226</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中邮稳健添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>014831</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>兴银中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>83.33</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008300</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014832</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>兴银中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>83.33</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008301</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006226</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>015245</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>南华丰汇混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>016399</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -921,7 +2664,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1205,7 +2948,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1565,7 +3308,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1963,7 +3706,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2285,7 +4028,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2379,7 +4122,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688268-华特气体.xlsx
+++ b/数据整理/stocks/A股/科创板/688268-华特气体.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>9.279999999999999</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="D3" t="n">
-        <v>0.35</v>
+        <v>9.279999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>2.73</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>1.88</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>1.65</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,7 +633,195 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1910</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2342,7 +2547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2664,7 +2869,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2948,7 +3153,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3308,7 +3513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3706,7 +3911,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4028,7 +4233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4120,98 +4325,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001614</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东方区域发展混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>87.58</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.49</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0038</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>